--- a/pred_ohlcv/54_21/2020-01-25 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 TMTG ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-7383041.600214784</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-7552970.371414783</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-7569049.675414784</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-7569049.675414784</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-7569049.675414784</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-7588651.279614784</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-7588051.748314784</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-7605237.594514783</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-7674190.845014784</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-7704260.052814784</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-7749654.798314784</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-7749539.798314784</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-12020500.46278525</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-12188526.33798525</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-12188526.33798525</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-17154289.86683305</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-16902305.10107937</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-17593908.12436899</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-16436967.2520939</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-16436967.2520939</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-18076981.2293939</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-21675294.1496939</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-21722375.1824939</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-21719817.40043278</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-21809728.91193279</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-9254313.674729301</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-9007528.775129301</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-9007528.775129301</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-9146695.862729302</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-8658755.048729302</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-8852283.205129303</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-9368600.693929303</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-9368600.693929303</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-9368600.693929303</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-9487265.248929303</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-9557418.170129303</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-9239449.408433633</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-9755945.038833637</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-9323534.158133637</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-8950564.718833636</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-8950564.718833636</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-8979571.572133636</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-9760617.511533637</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-9751103.527033636</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-10729208.80993364</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-10731496.39623364</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-10723241.09553364</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-10723386.15653364</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-29654183.59083968</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-30729086.61723968</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-30047656.77956305</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-29781261.50346305</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-29781261.50346305</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-30031241.22976305</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-31145113.61417654</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-31833341.79047654</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-31685828.31249003</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-31656847.23829003</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-31706765.58069003</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 TMTG ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-7383041.600214784</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-7552970.371414783</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-7569049.675414784</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-7569049.675414784</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-7569049.675414784</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-7588651.279614784</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-7588051.748314784</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-7605237.594514783</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-7674190.845014784</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-7704260.052814784</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-7749654.798314784</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-7749539.798314784</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-12020500.46278525</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-12188526.33798525</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-12188526.33798525</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-17154289.86683305</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-16902305.10107937</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-17593908.12436899</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-16436967.2520939</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-16436967.2520939</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-18076981.2293939</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-21675294.1496939</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-21722375.1824939</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-21719817.40043278</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-21809728.91193279</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-9254313.674729301</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-9007528.775129301</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-9007528.775129301</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-9146695.862729302</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-8658755.048729302</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-8852283.205129303</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-9368600.693929303</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-9368600.693929303</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-9368600.693929303</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-9487265.248929303</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-9557418.170129303</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-9498126.646433633</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-9055538.762533633</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-9055084.034933632</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-9239449.408433633</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-10809671.36763363</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-11026149.87213363</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-11200498.85253363</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-8950564.718833636</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-8979571.572133636</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-9760617.511533637</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-9751103.527033636</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-10729208.80993364</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-10731496.39623364</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-10723241.09553364</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-29659228.69004104</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-29654183.59083968</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-30729086.61723968</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-30718506.94723968</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-30716106.94723968</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-30716106.94723968</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-30710663.75723968</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-30986637.58673968</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-30985523.19825047</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-30989539.52875047</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-30995250.27475047</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-30594337.74405047</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-30581089.75485047</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-30577523.96385046</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-30588539.54465047</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-30576714.75865047</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-30574487.66565047</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-30581462.70765047</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-30366758.19435047</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-30366758.19435047</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-30366758.19435047</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-30366758.19435047</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-30308747.20315047</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-30297494.68855046</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-30298601.83955047</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-30032470.88615046</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-30111270.94465046</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-30115947.28965046</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-30114861.69765046</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-30052670.88955046</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-29902801.92395046</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-29693630.06085046</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-29638520.49675046</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-29434532.10405046</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-29437719.98205046</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-29437719.98205046</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-29441847.07005046</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-29458065.34995046</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-29509255.02026305</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-30047656.77956305</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-29781261.50346305</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-29781261.50346305</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-30031241.22976305</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-31145113.61417654</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-31833341.79047654</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-31543110.26249003</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-31551107.83049003</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-31536487.95549003</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-31685828.31249003</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-31685828.31249003</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-31656847.23829003</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-31707008.48669003</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-31707008.48669003</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-31706765.58069003</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-31703217.09769003</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-31710651.18869003</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-31671631.13039003</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-31653833.29509003</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
